--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value41.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value41.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.637577908667413</v>
+        <v>1.654473543167114</v>
       </c>
       <c r="B1">
-        <v>0.774431020901192</v>
+        <v>2.136698007583618</v>
       </c>
       <c r="C1">
-        <v>1.059720580489138</v>
+        <v>3.056734800338745</v>
       </c>
       <c r="D1">
-        <v>2.702777018909736</v>
+        <v>6.219033241271973</v>
       </c>
       <c r="E1">
-        <v>3.577491581425124</v>
+        <v>2.274832725524902</v>
       </c>
     </row>
   </sheetData>
